--- a/data/sample_info/CA1toDGphotos.xlsx
+++ b/data/sample_info/CA1toDGphotos.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raynamharris/Github/BehavEphyRNAseq/RNAseqSamples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raynamharris/Github/BehavEphyRNAseq/data/sample_info/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="12240" yWindow="560" windowWidth="16580" windowHeight="15260"/>
+    <workbookView xWindow="45240" yWindow="2180" windowWidth="20700" windowHeight="15740"/>
   </bookViews>
   <sheets>
     <sheet name="CA1toDGphotos" sheetId="1" r:id="rId1"/>
@@ -24,15 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
   <si>
     <t>Mouse</t>
-  </si>
-  <si>
-    <t>notes.mouse</t>
-  </si>
-  <si>
-    <t>photos</t>
   </si>
   <si>
     <t>Date</t>
@@ -56,88 +50,7 @@
     <t>DG</t>
   </si>
   <si>
-    <t>15-140E</t>
-  </si>
-  <si>
     <t>MK</t>
-  </si>
-  <si>
-    <t>15-141E</t>
-  </si>
-  <si>
-    <t>15-142E</t>
-  </si>
-  <si>
-    <t>15-140A</t>
-  </si>
-  <si>
-    <t>mouse not used for ephys</t>
-  </si>
-  <si>
-    <t>15-140B</t>
-  </si>
-  <si>
-    <t>15-140C</t>
-  </si>
-  <si>
-    <t>15-140D</t>
-  </si>
-  <si>
-    <t>15-141C</t>
-  </si>
-  <si>
-    <t>15-141D</t>
-  </si>
-  <si>
-    <t>15-144E</t>
-  </si>
-  <si>
-    <t>15-142A</t>
-  </si>
-  <si>
-    <t>15-142B</t>
-  </si>
-  <si>
-    <t>15-142C</t>
-  </si>
-  <si>
-    <t>slice photos</t>
-  </si>
-  <si>
-    <t>15-142D</t>
-  </si>
-  <si>
-    <t>15-143A</t>
-  </si>
-  <si>
-    <t>15-143B</t>
-  </si>
-  <si>
-    <t>15-143D</t>
-  </si>
-  <si>
-    <t>15-143C</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>15-144?</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>15-144D</t>
-  </si>
-  <si>
-    <t>crystals on slice</t>
-  </si>
-  <si>
-    <t>15-144C</t>
-  </si>
-  <si>
-    <t>15-145A</t>
   </si>
   <si>
     <t>15-145B</t>
@@ -170,9 +83,6 @@
     <t>15-147</t>
   </si>
   <si>
-    <t>homecage</t>
-  </si>
-  <si>
     <t>15-321</t>
   </si>
   <si>
@@ -200,13 +110,19 @@
     <t>15-331</t>
   </si>
   <si>
-    <t>???</t>
-  </si>
-  <si>
     <t>15-148C</t>
   </si>
   <si>
     <t>15-148D</t>
+  </si>
+  <si>
+    <t>15-122A</t>
+  </si>
+  <si>
+    <t>15-122B</t>
+  </si>
+  <si>
+    <t>75 also maddy favorite</t>
   </si>
 </sst>
 </file>
@@ -867,64 +783,61 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>CA1toDGphotos!$A$26:$A$44</c:f>
+              <c:f>CA1toDGphotos!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>???</c:v>
+                  <c:v>15-145B</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15-145B</c:v>
+                  <c:v>15-145C</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15-145C</c:v>
+                  <c:v>15-145D</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15-145D</c:v>
+                  <c:v>15-146A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15-146A</c:v>
+                  <c:v>15-146B</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15-146B</c:v>
+                  <c:v>15-146C</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15-146C</c:v>
+                  <c:v>15-146D</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15-146D</c:v>
+                  <c:v>15-147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15-147</c:v>
+                  <c:v>15-147A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15-147A</c:v>
+                  <c:v>15-147B</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15-147B</c:v>
+                  <c:v>15-147C</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15-147C</c:v>
+                  <c:v>15-147D</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15-147D</c:v>
+                  <c:v>15-148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15-148</c:v>
+                  <c:v>15-148A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15-148A</c:v>
+                  <c:v>15-148B</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15-148B</c:v>
+                  <c:v>15-148C</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15-148C</c:v>
+                  <c:v>15-148D</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15-148D</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>15-310</c:v>
                 </c:pt>
               </c:strCache>
@@ -932,62 +845,62 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CA1toDGphotos!$K$26:$K$44</c:f>
+              <c:f>CA1toDGphotos!$I$2:$I$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>75.0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>75.0</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>76.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>82.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68.0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
                   <c:v>72.0</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="13">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>83.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="16">
                   <c:v>78.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>82.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>68.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>83.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>72.0</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>72.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1022,64 +935,61 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>CA1toDGphotos!$A$26:$A$44</c:f>
+              <c:f>CA1toDGphotos!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>???</c:v>
+                  <c:v>15-145B</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15-145B</c:v>
+                  <c:v>15-145C</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15-145C</c:v>
+                  <c:v>15-145D</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15-145D</c:v>
+                  <c:v>15-146A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15-146A</c:v>
+                  <c:v>15-146B</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15-146B</c:v>
+                  <c:v>15-146C</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15-146C</c:v>
+                  <c:v>15-146D</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15-146D</c:v>
+                  <c:v>15-147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15-147</c:v>
+                  <c:v>15-147A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15-147A</c:v>
+                  <c:v>15-147B</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15-147B</c:v>
+                  <c:v>15-147C</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15-147C</c:v>
+                  <c:v>15-147D</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15-147D</c:v>
+                  <c:v>15-148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15-148</c:v>
+                  <c:v>15-148A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15-148A</c:v>
+                  <c:v>15-148B</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15-148B</c:v>
+                  <c:v>15-148C</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15-148C</c:v>
+                  <c:v>15-148D</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15-148D</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>15-310</c:v>
                 </c:pt>
               </c:strCache>
@@ -1087,62 +997,62 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CA1toDGphotos!$L$26:$L$44</c:f>
+              <c:f>CA1toDGphotos!$J$2:$J$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>77.0</c:v>
+                </c:pt>
                 <c:pt idx="1">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>77.0</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>74.0</c:v>
-                </c:pt>
                 <c:pt idx="3">
-                  <c:v>77.0</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>72.0</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>75.0</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>72.0</c:v>
-                </c:pt>
                 <c:pt idx="7">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>75.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>74.0</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>75.0</c:v>
+                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>73.0</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="11">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>77.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>78.0</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="16">
                   <c:v>70.0</c:v>
                 </c:pt>
-                <c:pt idx="13">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>77.0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>78.0</c:v>
-                </c:pt>
                 <c:pt idx="17">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>79.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1177,64 +1087,61 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>CA1toDGphotos!$A$26:$A$44</c:f>
+              <c:f>CA1toDGphotos!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>???</c:v>
+                  <c:v>15-145B</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15-145B</c:v>
+                  <c:v>15-145C</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15-145C</c:v>
+                  <c:v>15-145D</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15-145D</c:v>
+                  <c:v>15-146A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15-146A</c:v>
+                  <c:v>15-146B</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15-146B</c:v>
+                  <c:v>15-146C</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15-146C</c:v>
+                  <c:v>15-146D</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15-146D</c:v>
+                  <c:v>15-147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15-147</c:v>
+                  <c:v>15-147A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15-147A</c:v>
+                  <c:v>15-147B</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15-147B</c:v>
+                  <c:v>15-147C</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15-147C</c:v>
+                  <c:v>15-147D</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15-147D</c:v>
+                  <c:v>15-148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15-148</c:v>
+                  <c:v>15-148A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15-148A</c:v>
+                  <c:v>15-148B</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15-148B</c:v>
+                  <c:v>15-148C</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15-148C</c:v>
+                  <c:v>15-148D</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15-148D</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>15-310</c:v>
                 </c:pt>
               </c:strCache>
@@ -1242,59 +1149,59 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CA1toDGphotos!$M$26:$M$44</c:f>
+              <c:f>CA1toDGphotos!$K$2:$K$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
+                <c:pt idx="0">
+                  <c:v>74.0</c:v>
+                </c:pt>
                 <c:pt idx="1">
-                  <c:v>74.0</c:v>
+                  <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>75.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>75.0</c:v>
+                  <c:v>78.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>78.0</c:v>
+                  <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>76.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>74.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>69.0</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>76.0</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="10">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>79.0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>73.0</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>70.0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>76.0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>79.0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>75.0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>73.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
                   <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>74.0</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>78.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1329,64 +1236,61 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>CA1toDGphotos!$A$26:$A$44</c:f>
+              <c:f>CA1toDGphotos!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>???</c:v>
+                  <c:v>15-145B</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15-145B</c:v>
+                  <c:v>15-145C</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15-145C</c:v>
+                  <c:v>15-145D</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15-145D</c:v>
+                  <c:v>15-146A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15-146A</c:v>
+                  <c:v>15-146B</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15-146B</c:v>
+                  <c:v>15-146C</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15-146C</c:v>
+                  <c:v>15-146D</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15-146D</c:v>
+                  <c:v>15-147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15-147</c:v>
+                  <c:v>15-147A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15-147A</c:v>
+                  <c:v>15-147B</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15-147B</c:v>
+                  <c:v>15-147C</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15-147C</c:v>
+                  <c:v>15-147D</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15-147D</c:v>
+                  <c:v>15-148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15-148</c:v>
+                  <c:v>15-148A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15-148A</c:v>
+                  <c:v>15-148B</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15-148B</c:v>
+                  <c:v>15-148C</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15-148C</c:v>
+                  <c:v>15-148D</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15-148D</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>15-310</c:v>
                 </c:pt>
               </c:strCache>
@@ -1394,47 +1298,47 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CA1toDGphotos!$N$26:$N$44</c:f>
+              <c:f>CA1toDGphotos!$L$2:$L$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="2">
+                <c:ptCount val="18"/>
+                <c:pt idx="1">
                   <c:v>70.0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>74.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74.0</c:v>
+                  <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>75.0</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>72.0</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>75.0</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>72.0</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
+                  <c:v>78.0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>85.0</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>75.0</c:v>
                 </c:pt>
-                <c:pt idx="11">
-                  <c:v>72.0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>78.0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>85.0</c:v>
-                </c:pt>
                 <c:pt idx="15">
-                  <c:v>75.0</c:v>
+                  <c:v>69.0</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>69.0</c:v>
-                </c:pt>
-                <c:pt idx="17">
                   <c:v>76.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1469,64 +1373,61 @@
           </c:marker>
           <c:xVal>
             <c:strRef>
-              <c:f>CA1toDGphotos!$A$26:$A$44</c:f>
+              <c:f>CA1toDGphotos!$A$2:$A$19</c:f>
               <c:strCache>
-                <c:ptCount val="19"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
-                  <c:v>???</c:v>
+                  <c:v>15-145B</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>15-145B</c:v>
+                  <c:v>15-145C</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15-145C</c:v>
+                  <c:v>15-145D</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>15-145D</c:v>
+                  <c:v>15-146A</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15-146A</c:v>
+                  <c:v>15-146B</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15-146B</c:v>
+                  <c:v>15-146C</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15-146C</c:v>
+                  <c:v>15-146D</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15-146D</c:v>
+                  <c:v>15-147</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>15-147</c:v>
+                  <c:v>15-147A</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15-147A</c:v>
+                  <c:v>15-147B</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>15-147B</c:v>
+                  <c:v>15-147C</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15-147C</c:v>
+                  <c:v>15-147D</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15-147D</c:v>
+                  <c:v>15-148</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>15-148</c:v>
+                  <c:v>15-148A</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>15-148A</c:v>
+                  <c:v>15-148B</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>15-148B</c:v>
+                  <c:v>15-148C</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>15-148C</c:v>
+                  <c:v>15-148D</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>15-148D</c:v>
-                </c:pt>
-                <c:pt idx="18">
                   <c:v>15-310</c:v>
                 </c:pt>
               </c:strCache>
@@ -1534,14 +1435,14 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>CA1toDGphotos!$O$26:$O$44</c:f>
+              <c:f>CA1toDGphotos!$M$2:$M$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="19"/>
-                <c:pt idx="12">
+                <c:ptCount val="18"/>
+                <c:pt idx="11">
                   <c:v>76.0</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="16">
                   <c:v>69.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1557,11 +1458,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2121951056"/>
-        <c:axId val="-2121940096"/>
+        <c:axId val="-2095944544"/>
+        <c:axId val="-2095899968"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2121951056"/>
+        <c:axId val="-2095944544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1673,13 +1574,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121940096"/>
+        <c:crossAx val="-2095899968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2121940096"/>
+        <c:axId val="-2095899968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90.0"/>
@@ -1801,7 +1702,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2121951056"/>
+        <c:crossAx val="-2095944544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0"/>
@@ -2412,15 +2313,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>361950</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:colOff>416379</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>24039</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>378279</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>109764</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2705,24 +2606,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O46"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D28" sqref="D28"/>
+      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.33203125" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" customWidth="1"/>
-    <col min="6" max="9" width="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.1640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -2747,60 +2646,69 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1">
+        <v>1</v>
+      </c>
+      <c r="J1">
+        <v>2</v>
+      </c>
+      <c r="K1">
+        <v>3</v>
+      </c>
+      <c r="L1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="1">
+        <v>42203</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>1</v>
-      </c>
-      <c r="L1">
-        <v>2</v>
-      </c>
-      <c r="M1">
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="N1">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="1">
-        <v>42164</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
+      <c r="E2">
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2">
-        <v>4</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="I2" s="2">
+        <v>75</v>
       </c>
       <c r="J2">
-        <v>4</v>
+        <v>77</v>
+      </c>
+      <c r="K2">
+        <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1">
-        <v>42167</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
+        <v>10</v>
+      </c>
+      <c r="B3" s="1">
+        <v>42207</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>4</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
       </c>
       <c r="F3">
         <v>4</v>
@@ -2812,50 +2720,68 @@
         <v>3</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>74</v>
+      </c>
+      <c r="K3" s="2">
+        <v>75</v>
+      </c>
+      <c r="L3">
+        <v>70</v>
       </c>
     </row>
-    <row r="4" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="1">
-        <v>42169</v>
-      </c>
-      <c r="E4" t="s">
         <v>11</v>
+      </c>
+      <c r="B4" s="1">
+        <v>42207</v>
+      </c>
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="J4">
-        <v>4</v>
+        <v>77</v>
+      </c>
+      <c r="K4" s="2">
+        <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1">
-        <v>42173</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42208</v>
+      </c>
+      <c r="C5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
       </c>
       <c r="F5">
         <v>3</v>
@@ -2867,180 +2793,258 @@
         <v>3</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
+        <v>76</v>
+      </c>
+      <c r="J5" s="2">
+        <v>75</v>
+      </c>
+      <c r="K5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1">
+        <v>42208</v>
+      </c>
+      <c r="C6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>4</v>
+      </c>
+      <c r="E6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <v>4</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>4</v>
+      </c>
+      <c r="I6">
+        <v>69</v>
+      </c>
+      <c r="J6" s="2">
+        <v>75</v>
+      </c>
+      <c r="K6">
+        <v>76</v>
+      </c>
+      <c r="L6">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="1">
+        <v>42209</v>
+      </c>
+      <c r="C7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>4</v>
+      </c>
+      <c r="F7">
+        <v>4</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
+      </c>
+      <c r="I7">
+        <v>70</v>
+      </c>
+      <c r="J7">
+        <v>72</v>
+      </c>
+      <c r="K7">
+        <v>76</v>
+      </c>
+      <c r="L7" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1">
+        <v>42209</v>
+      </c>
+      <c r="C8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>4</v>
+      </c>
+      <c r="F8">
+        <v>4</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>4</v>
+      </c>
+      <c r="I8">
+        <v>78</v>
+      </c>
+      <c r="J8" s="2">
+        <v>75</v>
+      </c>
+      <c r="K8" s="3">
+        <v>74</v>
+      </c>
+      <c r="L8">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="1">
+        <v>42212</v>
+      </c>
+      <c r="C9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9">
+        <v>4</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9">
+        <v>4</v>
+      </c>
+      <c r="G9">
         <v>3</v>
       </c>
+      <c r="H9">
+        <v>4</v>
+      </c>
+      <c r="I9">
+        <v>82</v>
+      </c>
+      <c r="J9" s="2">
+        <v>74</v>
+      </c>
+      <c r="K9">
+        <v>70</v>
+      </c>
+      <c r="L9" s="3">
+        <v>75</v>
+      </c>
     </row>
-    <row r="6" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1">
-        <v>42173</v>
-      </c>
-      <c r="E6" t="s">
-        <v>11</v>
-      </c>
-      <c r="F6">
-        <v>4</v>
-      </c>
-      <c r="G6">
-        <v>4</v>
-      </c>
-      <c r="H6">
-        <v>4</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>4</v>
+      <c r="B10" s="1">
+        <v>42210</v>
+      </c>
+      <c r="C10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>4</v>
+      </c>
+      <c r="E10">
+        <v>4</v>
+      </c>
+      <c r="F10">
+        <v>4</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>4</v>
+      </c>
+      <c r="I10">
+        <v>77</v>
+      </c>
+      <c r="J10" s="2">
+        <v>75</v>
+      </c>
+      <c r="K10">
+        <v>69</v>
+      </c>
+      <c r="L10">
+        <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="1">
-        <v>42174</v>
-      </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7">
-        <v>3</v>
-      </c>
-      <c r="G7">
-        <v>3</v>
-      </c>
-      <c r="H7">
-        <v>3</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>3</v>
+      <c r="B11" s="1">
+        <v>42210</v>
+      </c>
+      <c r="C11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>4</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="F11">
+        <v>4</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>4</v>
+      </c>
+      <c r="I11">
+        <v>78</v>
+      </c>
+      <c r="J11">
+        <v>73</v>
+      </c>
+      <c r="K11">
+        <v>76</v>
+      </c>
+      <c r="L11" s="2">
+        <v>75</v>
       </c>
     </row>
-    <row r="8" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="1">
-        <v>42174</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8">
-        <v>3</v>
-      </c>
-      <c r="G8">
-        <v>3</v>
-      </c>
-      <c r="H8">
-        <v>3</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="1">
-        <v>42181</v>
-      </c>
-      <c r="E9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F9">
-        <v>2</v>
-      </c>
-      <c r="G9">
-        <v>2</v>
-      </c>
-      <c r="H9">
-        <v>3</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
-      </c>
-      <c r="J9">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-      <c r="D10" s="1">
-        <v>42181</v>
-      </c>
-      <c r="E10" t="s">
-        <v>11</v>
-      </c>
-      <c r="F10">
-        <v>3</v>
-      </c>
-      <c r="G10">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>3</v>
-      </c>
-      <c r="I10">
-        <v>3</v>
-      </c>
-      <c r="J10">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="1">
-        <v>42185</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11">
-        <v>2</v>
-      </c>
-      <c r="G11">
-        <v>2</v>
-      </c>
-      <c r="H11">
-        <v>3</v>
-      </c>
-      <c r="I11">
-        <v>2</v>
-      </c>
-      <c r="J11">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="D12" s="1">
-        <v>42187</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
+      <c r="B12" s="1">
+        <v>42214</v>
+      </c>
+      <c r="C12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
       </c>
       <c r="F12">
         <v>4</v>
@@ -3052,79 +3056,109 @@
         <v>4</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>68</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>78</v>
+      </c>
+      <c r="K12" s="2">
+        <v>75</v>
+      </c>
+      <c r="L12">
+        <v>72</v>
       </c>
     </row>
-    <row r="13" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="D13" s="1">
-        <v>42187</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
+      <c r="B13" s="1">
+        <v>42214</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>4</v>
       </c>
       <c r="F13">
         <v>4</v>
       </c>
       <c r="G13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H13">
         <v>4</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="2">
+        <v>74</v>
+      </c>
+      <c r="J13">
+        <v>70</v>
+      </c>
+      <c r="L13">
+        <v>78</v>
+      </c>
+      <c r="M13">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="1">
+        <v>42213</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
+      <c r="E14">
+        <v>4</v>
+      </c>
+      <c r="F14">
+        <v>4</v>
+      </c>
+      <c r="G14">
+        <v>4</v>
+      </c>
+      <c r="H14">
+        <v>4</v>
+      </c>
+      <c r="I14">
+        <v>72</v>
+      </c>
+      <c r="J14" s="2">
+        <v>77</v>
+      </c>
+      <c r="K14">
+        <v>79</v>
+      </c>
+      <c r="L14">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="1">
+        <v>42215</v>
+      </c>
+      <c r="C15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="J13">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="1">
-        <v>42191</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14">
-        <v>4</v>
-      </c>
-      <c r="G14">
-        <v>2</v>
-      </c>
-      <c r="H14">
-        <v>2</v>
-      </c>
-      <c r="I14">
-        <v>2</v>
-      </c>
-      <c r="J14">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="1">
-        <v>42191</v>
-      </c>
-      <c r="E15" t="s">
-        <v>11</v>
+      <c r="E15">
+        <v>3</v>
       </c>
       <c r="F15">
         <v>3</v>
@@ -3133,1113 +3167,314 @@
         <v>3</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I15">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="J15">
-        <v>3</v>
+        <v>69</v>
+      </c>
+      <c r="K15" s="2">
+        <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" s="1">
-        <v>42194</v>
-      </c>
-      <c r="E16" t="s">
-        <v>11</v>
+        <v>26</v>
+      </c>
+      <c r="B16" s="1">
+        <v>42215</v>
+      </c>
+      <c r="C16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16">
+        <v>4</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
       </c>
       <c r="F16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="I16">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="J16">
-        <v>2</v>
+        <v>77</v>
+      </c>
+      <c r="K16">
+        <v>73</v>
+      </c>
+      <c r="L16" s="2">
+        <v>75</v>
       </c>
     </row>
-    <row r="17" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="1">
-        <v>42194</v>
-      </c>
-      <c r="E17" t="s">
-        <v>11</v>
+      <c r="B17" s="1">
+        <v>42216</v>
+      </c>
+      <c r="C17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17">
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
       </c>
       <c r="F17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H17">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>3</v>
+        <v>72</v>
       </c>
       <c r="J17">
-        <v>3</v>
+        <v>78</v>
+      </c>
+      <c r="K17" s="2">
+        <v>74</v>
+      </c>
+      <c r="L17">
+        <v>69</v>
       </c>
     </row>
-    <row r="18" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>29</v>
       </c>
-      <c r="D18" s="1">
-        <v>42194</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
+      <c r="B18" s="1">
+        <v>42216</v>
+      </c>
+      <c r="C18" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
+      <c r="E18">
+        <v>5</v>
       </c>
       <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18">
+        <v>4</v>
+      </c>
+      <c r="H18">
+        <v>5</v>
+      </c>
+      <c r="I18">
+        <v>78</v>
+      </c>
+      <c r="J18">
+        <v>70</v>
+      </c>
+      <c r="K18" s="2">
+        <v>74</v>
+      </c>
+      <c r="L18">
+        <v>76</v>
+      </c>
+      <c r="M18">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="1">
+        <v>42214</v>
+      </c>
+      <c r="C19" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19">
         <v>3</v>
       </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>2</v>
-      </c>
-      <c r="I18">
+      <c r="F19">
         <v>3</v>
       </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>30</v>
-      </c>
-      <c r="D19" s="1">
-        <v>42195</v>
-      </c>
-      <c r="E19" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19">
-        <v>4</v>
-      </c>
       <c r="G19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H19">
         <v>3</v>
       </c>
       <c r="I19">
+        <v>72</v>
+      </c>
+      <c r="J19">
+        <v>79</v>
+      </c>
+      <c r="K19" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1">
+        <v>42212</v>
+      </c>
+      <c r="C20" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20">
         <v>2</v>
       </c>
-      <c r="J19">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="1">
-        <v>42195</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>2</v>
       </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>2</v>
+        <v>88</v>
+      </c>
+      <c r="J20" s="2">
+        <v>87</v>
       </c>
     </row>
-    <row r="21" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1">
+        <v>42215</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21">
+        <v>3</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>3</v>
+      </c>
+      <c r="H21">
+        <v>3</v>
+      </c>
+      <c r="I21" s="2">
+        <v>78</v>
+      </c>
+      <c r="J21" s="3">
+        <v>73</v>
+      </c>
+      <c r="K21">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B22" s="1">
+        <v>42534</v>
+      </c>
+      <c r="C22" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22">
+        <v>4</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>4</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22">
+        <v>4</v>
+      </c>
+      <c r="I22">
+        <v>74</v>
+      </c>
+      <c r="J22" s="3">
+        <v>78</v>
+      </c>
+      <c r="K22" s="3">
+        <v>77</v>
+      </c>
+      <c r="L22" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>31</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B23" s="1">
+        <v>42534</v>
+      </c>
+      <c r="C23" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23">
+        <v>4</v>
+      </c>
+      <c r="E23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <v>4</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>4</v>
+      </c>
+      <c r="I23">
+        <v>78</v>
+      </c>
+      <c r="J23" s="3">
+        <v>77</v>
+      </c>
+      <c r="K23" s="3">
+        <v>75</v>
+      </c>
+      <c r="L23" s="3">
+        <v>74</v>
+      </c>
+      <c r="N23" t="s">
         <v>32</v>
-      </c>
-      <c r="D21" s="1">
-        <v>42200</v>
-      </c>
-      <c r="E21" t="s">
-        <v>11</v>
-      </c>
-      <c r="F21">
-        <v>2</v>
-      </c>
-      <c r="G21">
-        <v>2</v>
-      </c>
-      <c r="H21">
-        <v>2</v>
-      </c>
-      <c r="I21">
-        <v>2</v>
-      </c>
-      <c r="J21">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>33</v>
-      </c>
-      <c r="B22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22" s="1">
-        <v>42200</v>
-      </c>
-      <c r="E22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F22">
-        <v>4</v>
-      </c>
-      <c r="G22">
-        <v>4</v>
-      </c>
-      <c r="H22">
-        <v>4</v>
-      </c>
-      <c r="I22">
-        <v>4</v>
-      </c>
-      <c r="J22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="1">
-        <v>42202</v>
-      </c>
-      <c r="E23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23">
-        <v>3</v>
-      </c>
-      <c r="G23">
-        <v>3</v>
-      </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-      <c r="I23">
-        <v>3</v>
-      </c>
-      <c r="J23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="1">
-        <v>42203</v>
-      </c>
-      <c r="E24" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24">
-        <v>3</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-      <c r="H24">
-        <v>3</v>
-      </c>
-      <c r="I24">
-        <v>3</v>
-      </c>
-      <c r="J24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>37</v>
-      </c>
-      <c r="D25" s="1">
-        <v>42203</v>
-      </c>
-      <c r="E25" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-      <c r="H25">
-        <v>3</v>
-      </c>
-      <c r="I25">
-        <v>3</v>
-      </c>
-      <c r="J25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="1">
-        <v>42216</v>
-      </c>
-      <c r="E26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26">
-        <v>3</v>
-      </c>
-      <c r="G26">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>3</v>
-      </c>
-      <c r="I26">
-        <v>3</v>
-      </c>
-      <c r="J26">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>38</v>
-      </c>
-      <c r="C27" t="s">
-        <v>25</v>
-      </c>
-      <c r="D27" s="1">
-        <v>42203</v>
-      </c>
-      <c r="E27" t="s">
-        <v>11</v>
-      </c>
-      <c r="F27">
-        <v>3</v>
-      </c>
-      <c r="G27">
-        <v>3</v>
-      </c>
-      <c r="H27">
-        <v>3</v>
-      </c>
-      <c r="I27">
-        <v>3</v>
-      </c>
-      <c r="J27">
-        <v>3</v>
-      </c>
-      <c r="K27" s="2">
-        <v>75</v>
-      </c>
-      <c r="L27">
-        <v>77</v>
-      </c>
-      <c r="M27">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>39</v>
-      </c>
-      <c r="C28" t="s">
-        <v>25</v>
-      </c>
-      <c r="D28" s="1">
-        <v>42207</v>
-      </c>
-      <c r="E28" t="s">
-        <v>11</v>
-      </c>
-      <c r="F28">
-        <v>4</v>
-      </c>
-      <c r="G28">
-        <v>4</v>
-      </c>
-      <c r="H28">
-        <v>4</v>
-      </c>
-      <c r="I28">
-        <v>4</v>
-      </c>
-      <c r="J28">
-        <v>3</v>
-      </c>
-      <c r="K28">
-        <v>72</v>
-      </c>
-      <c r="L28">
-        <v>74</v>
-      </c>
-      <c r="M28" s="2">
-        <v>75</v>
-      </c>
-      <c r="N28">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>40</v>
-      </c>
-      <c r="C29" t="s">
-        <v>25</v>
-      </c>
-      <c r="D29" s="1">
-        <v>42207</v>
-      </c>
-      <c r="E29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29">
-        <v>3</v>
-      </c>
-      <c r="G29">
-        <v>3</v>
-      </c>
-      <c r="H29">
-        <v>3</v>
-      </c>
-      <c r="I29">
-        <v>3</v>
-      </c>
-      <c r="J29">
-        <v>3</v>
-      </c>
-      <c r="K29">
-        <v>72</v>
-      </c>
-      <c r="L29">
-        <v>77</v>
-      </c>
-      <c r="M29" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>41</v>
-      </c>
-      <c r="C30" t="s">
-        <v>25</v>
-      </c>
-      <c r="D30" s="1">
-        <v>42208</v>
-      </c>
-      <c r="E30" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30">
-        <v>3</v>
-      </c>
-      <c r="G30">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>3</v>
-      </c>
-      <c r="I30">
-        <v>3</v>
-      </c>
-      <c r="J30">
-        <v>3</v>
-      </c>
-      <c r="K30">
-        <v>76</v>
-      </c>
-      <c r="L30" s="2">
-        <v>75</v>
-      </c>
-      <c r="M30">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>42</v>
-      </c>
-      <c r="C31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D31" s="1">
-        <v>42208</v>
-      </c>
-      <c r="E31" t="s">
-        <v>11</v>
-      </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-      <c r="G31">
-        <v>5</v>
-      </c>
-      <c r="H31">
-        <v>4</v>
-      </c>
-      <c r="I31">
-        <v>4</v>
-      </c>
-      <c r="J31">
-        <v>4</v>
-      </c>
-      <c r="K31">
-        <v>69</v>
-      </c>
-      <c r="L31" s="2">
-        <v>75</v>
-      </c>
-      <c r="M31">
-        <v>76</v>
-      </c>
-      <c r="N31">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" t="s">
-        <v>25</v>
-      </c>
-      <c r="D32" s="1">
-        <v>42209</v>
-      </c>
-      <c r="E32" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32">
-        <v>4</v>
-      </c>
-      <c r="G32">
-        <v>4</v>
-      </c>
-      <c r="H32">
-        <v>4</v>
-      </c>
-      <c r="I32">
-        <v>4</v>
-      </c>
-      <c r="J32">
-        <v>4</v>
-      </c>
-      <c r="K32">
-        <v>70</v>
-      </c>
-      <c r="L32">
-        <v>72</v>
-      </c>
-      <c r="M32">
-        <v>76</v>
-      </c>
-      <c r="N32" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" t="s">
-        <v>25</v>
-      </c>
-      <c r="D33" s="1">
-        <v>42209</v>
-      </c>
-      <c r="E33" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33">
-        <v>4</v>
-      </c>
-      <c r="G33">
-        <v>4</v>
-      </c>
-      <c r="H33">
-        <v>4</v>
-      </c>
-      <c r="I33">
-        <v>4</v>
-      </c>
-      <c r="J33">
-        <v>4</v>
-      </c>
-      <c r="K33">
-        <v>78</v>
-      </c>
-      <c r="L33" s="2">
-        <v>75</v>
-      </c>
-      <c r="M33" s="3">
-        <v>74</v>
-      </c>
-      <c r="N33">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>47</v>
-      </c>
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="C34" t="s">
-        <v>25</v>
-      </c>
-      <c r="D34" s="1">
-        <v>42212</v>
-      </c>
-      <c r="E34" t="s">
-        <v>11</v>
-      </c>
-      <c r="F34">
-        <v>4</v>
-      </c>
-      <c r="G34">
-        <v>4</v>
-      </c>
-      <c r="H34">
-        <v>4</v>
-      </c>
-      <c r="I34">
-        <v>3</v>
-      </c>
-      <c r="J34">
-        <v>4</v>
-      </c>
-      <c r="K34">
-        <v>82</v>
-      </c>
-      <c r="L34" s="2">
-        <v>74</v>
-      </c>
-      <c r="M34">
-        <v>70</v>
-      </c>
-      <c r="N34" s="3">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" t="s">
-        <v>25</v>
-      </c>
-      <c r="D35" s="1">
-        <v>42210</v>
-      </c>
-      <c r="E35" t="s">
-        <v>11</v>
-      </c>
-      <c r="F35">
-        <v>4</v>
-      </c>
-      <c r="G35">
-        <v>4</v>
-      </c>
-      <c r="H35">
-        <v>4</v>
-      </c>
-      <c r="I35">
-        <v>4</v>
-      </c>
-      <c r="J35">
-        <v>4</v>
-      </c>
-      <c r="K35">
-        <v>77</v>
-      </c>
-      <c r="L35" s="2">
-        <v>75</v>
-      </c>
-      <c r="M35">
-        <v>69</v>
-      </c>
-      <c r="N35">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" t="s">
-        <v>25</v>
-      </c>
-      <c r="D36" s="1">
-        <v>42210</v>
-      </c>
-      <c r="E36" t="s">
-        <v>11</v>
-      </c>
-      <c r="F36">
-        <v>4</v>
-      </c>
-      <c r="G36">
-        <v>4</v>
-      </c>
-      <c r="H36">
-        <v>4</v>
-      </c>
-      <c r="I36">
-        <v>4</v>
-      </c>
-      <c r="J36">
-        <v>4</v>
-      </c>
-      <c r="K36">
-        <v>78</v>
-      </c>
-      <c r="L36">
-        <v>73</v>
-      </c>
-      <c r="M36">
-        <v>76</v>
-      </c>
-      <c r="N36" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>52</v>
-      </c>
-      <c r="C37" t="s">
-        <v>25</v>
-      </c>
-      <c r="D37" s="1">
-        <v>42214</v>
-      </c>
-      <c r="E37" t="s">
-        <v>11</v>
-      </c>
-      <c r="F37">
-        <v>3</v>
-      </c>
-      <c r="G37">
-        <v>3</v>
-      </c>
-      <c r="H37">
-        <v>4</v>
-      </c>
-      <c r="I37">
-        <v>2</v>
-      </c>
-      <c r="J37">
-        <v>4</v>
-      </c>
-      <c r="K37">
-        <v>68</v>
-      </c>
-      <c r="L37">
-        <v>78</v>
-      </c>
-      <c r="M37" s="2">
-        <v>75</v>
-      </c>
-      <c r="N37">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>53</v>
-      </c>
-      <c r="C38" t="s">
-        <v>25</v>
-      </c>
-      <c r="D38" s="1">
-        <v>42214</v>
-      </c>
-      <c r="E38" t="s">
-        <v>11</v>
-      </c>
-      <c r="F38">
-        <v>4</v>
-      </c>
-      <c r="G38">
-        <v>4</v>
-      </c>
-      <c r="H38">
-        <v>4</v>
-      </c>
-      <c r="I38">
-        <v>4</v>
-      </c>
-      <c r="J38">
-        <v>4</v>
-      </c>
-      <c r="K38" s="2">
-        <v>74</v>
-      </c>
-      <c r="L38">
-        <v>70</v>
-      </c>
-      <c r="N38">
-        <v>78</v>
-      </c>
-      <c r="O38">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>51</v>
-      </c>
-      <c r="B39" t="s">
-        <v>48</v>
-      </c>
-      <c r="C39" t="s">
-        <v>25</v>
-      </c>
-      <c r="D39" s="1">
-        <v>42213</v>
-      </c>
-      <c r="E39" t="s">
-        <v>11</v>
-      </c>
-      <c r="F39">
-        <v>5</v>
-      </c>
-      <c r="G39">
-        <v>4</v>
-      </c>
-      <c r="H39">
-        <v>4</v>
-      </c>
-      <c r="I39">
-        <v>4</v>
-      </c>
-      <c r="J39">
-        <v>4</v>
-      </c>
-      <c r="K39">
-        <v>72</v>
-      </c>
-      <c r="L39" s="2">
-        <v>77</v>
-      </c>
-      <c r="M39">
-        <v>79</v>
-      </c>
-      <c r="N39">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>55</v>
-      </c>
-      <c r="C40" t="s">
-        <v>25</v>
-      </c>
-      <c r="D40" s="1">
-        <v>42215</v>
-      </c>
-      <c r="E40" t="s">
-        <v>11</v>
-      </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40">
-        <v>3</v>
-      </c>
-      <c r="H40">
-        <v>3</v>
-      </c>
-      <c r="I40">
-        <v>3</v>
-      </c>
-      <c r="J40">
-        <v>3</v>
-      </c>
-      <c r="K40">
-        <v>79</v>
-      </c>
-      <c r="L40">
-        <v>69</v>
-      </c>
-      <c r="M40" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" t="s">
-        <v>25</v>
-      </c>
-      <c r="D41" s="1">
-        <v>42215</v>
-      </c>
-      <c r="E41" t="s">
-        <v>11</v>
-      </c>
-      <c r="F41">
-        <v>4</v>
-      </c>
-      <c r="G41">
-        <v>4</v>
-      </c>
-      <c r="H41">
-        <v>4</v>
-      </c>
-      <c r="I41">
-        <v>4</v>
-      </c>
-      <c r="J41">
-        <v>4</v>
-      </c>
-      <c r="K41">
-        <v>83</v>
-      </c>
-      <c r="L41">
-        <v>77</v>
-      </c>
-      <c r="M41">
-        <v>73</v>
-      </c>
-      <c r="N41" s="2">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>59</v>
-      </c>
-      <c r="C42" t="s">
-        <v>25</v>
-      </c>
-      <c r="D42" s="1">
-        <v>42216</v>
-      </c>
-      <c r="E42" t="s">
-        <v>11</v>
-      </c>
-      <c r="F42">
-        <v>4</v>
-      </c>
-      <c r="G42">
-        <v>4</v>
-      </c>
-      <c r="H42">
-        <v>4</v>
-      </c>
-      <c r="I42">
-        <v>4</v>
-      </c>
-      <c r="J42">
-        <v>4</v>
-      </c>
-      <c r="K42">
-        <v>72</v>
-      </c>
-      <c r="L42">
-        <v>78</v>
-      </c>
-      <c r="M42" s="2">
-        <v>74</v>
-      </c>
-      <c r="N42">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>60</v>
-      </c>
-      <c r="C43" t="s">
-        <v>25</v>
-      </c>
-      <c r="D43" s="1">
-        <v>42216</v>
-      </c>
-      <c r="E43" t="s">
-        <v>11</v>
-      </c>
-      <c r="F43">
-        <v>5</v>
-      </c>
-      <c r="G43">
-        <v>5</v>
-      </c>
-      <c r="H43">
-        <v>4</v>
-      </c>
-      <c r="I43">
-        <v>4</v>
-      </c>
-      <c r="J43">
-        <v>5</v>
-      </c>
-      <c r="K43">
-        <v>78</v>
-      </c>
-      <c r="L43">
-        <v>70</v>
-      </c>
-      <c r="M43" s="2">
-        <v>74</v>
-      </c>
-      <c r="N43">
-        <v>76</v>
-      </c>
-      <c r="O43">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>54</v>
-      </c>
-      <c r="C44" t="s">
-        <v>25</v>
-      </c>
-      <c r="D44" s="1">
-        <v>42214</v>
-      </c>
-      <c r="E44" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44">
-        <v>1</v>
-      </c>
-      <c r="G44">
-        <v>3</v>
-      </c>
-      <c r="H44">
-        <v>3</v>
-      </c>
-      <c r="I44">
-        <v>3</v>
-      </c>
-      <c r="J44">
-        <v>3</v>
-      </c>
-      <c r="K44">
-        <v>72</v>
-      </c>
-      <c r="L44">
-        <v>79</v>
-      </c>
-      <c r="M44" s="2">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>49</v>
-      </c>
-      <c r="C45" t="s">
-        <v>25</v>
-      </c>
-      <c r="D45" s="1">
-        <v>42212</v>
-      </c>
-      <c r="E45" t="s">
-        <v>50</v>
-      </c>
-      <c r="F45">
-        <v>2</v>
-      </c>
-      <c r="G45">
-        <v>0</v>
-      </c>
-      <c r="H45">
-        <v>0</v>
-      </c>
-      <c r="I45">
-        <v>0</v>
-      </c>
-      <c r="J45">
-        <v>2</v>
-      </c>
-      <c r="K45">
-        <v>88</v>
-      </c>
-      <c r="L45" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>57</v>
-      </c>
-      <c r="C46" t="s">
-        <v>25</v>
-      </c>
-      <c r="D46" s="1">
-        <v>42215</v>
-      </c>
-      <c r="E46" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46">
-        <v>3</v>
-      </c>
-      <c r="G46">
-        <v>3</v>
-      </c>
-      <c r="H46">
-        <v>3</v>
-      </c>
-      <c r="I46">
-        <v>3</v>
-      </c>
-      <c r="J46">
-        <v>3</v>
-      </c>
-      <c r="K46" s="2">
-        <v>78</v>
-      </c>
-      <c r="L46" s="3">
-        <v>73</v>
-      </c>
-      <c r="M46">
-        <v>79</v>
       </c>
     </row>
   </sheetData>

--- a/data/sample_info/CA1toDGphotos.xlsx
+++ b/data/sample_info/CA1toDGphotos.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="45240" yWindow="2180" windowWidth="20700" windowHeight="15740"/>
+    <workbookView xWindow="46140" yWindow="800" windowWidth="20700" windowHeight="15740"/>
   </bookViews>
   <sheets>
     <sheet name="CA1toDGphotos" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>Mouse</t>
   </si>
@@ -116,13 +116,19 @@
     <t>15-148D</t>
   </si>
   <si>
-    <t>15-122A</t>
+    <t>75 also maddy favorite</t>
   </si>
   <si>
-    <t>15-122B</t>
+    <t>16-122A</t>
   </si>
   <si>
-    <t>75 also maddy favorite</t>
+    <t>16-122B</t>
+  </si>
+  <si>
+    <t>16-122C</t>
+  </si>
+  <si>
+    <t>16-122D</t>
   </si>
 </sst>
 </file>
@@ -1020,7 +1026,7 @@
                   <c:v>72.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75.0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>74.0</c:v>
@@ -1458,11 +1464,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2095944544"/>
-        <c:axId val="-2095899968"/>
+        <c:axId val="-2142746576"/>
+        <c:axId val="-2100903712"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2095944544"/>
+        <c:axId val="-2142746576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1574,13 +1580,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095899968"/>
+        <c:crossAx val="-2100903712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2095899968"/>
+        <c:axId val="-2100903712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="90.0"/>
@@ -1702,7 +1708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2095944544"/>
+        <c:crossAx val="-2142746576"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="2.0"/>
@@ -2606,11 +2612,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N23"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L20" sqref="L20"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2906,8 +2912,8 @@
       <c r="I8">
         <v>78</v>
       </c>
-      <c r="J8" s="2">
-        <v>75</v>
+      <c r="J8" s="2" t="s">
+        <v>20</v>
       </c>
       <c r="K8" s="3">
         <v>74</v>
@@ -3400,7 +3406,7 @@
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B22" s="1">
         <v>42534</v>
@@ -3438,7 +3444,7 @@
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B23" s="1">
         <v>42534</v>
@@ -3474,7 +3480,80 @@
         <v>74</v>
       </c>
       <c r="N23" t="s">
-        <v>32</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>33</v>
+      </c>
+      <c r="B24" s="1">
+        <v>42540</v>
+      </c>
+      <c r="C24" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24">
+        <v>4</v>
+      </c>
+      <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24">
+        <v>4</v>
+      </c>
+      <c r="I24">
+        <v>77</v>
+      </c>
+      <c r="J24" s="3">
+        <v>75</v>
+      </c>
+      <c r="K24" s="3">
+        <v>74</v>
+      </c>
+      <c r="L24">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="1">
+        <v>42541</v>
+      </c>
+      <c r="C25" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25">
+        <v>3</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>3</v>
+      </c>
+      <c r="G25">
+        <v>3</v>
+      </c>
+      <c r="H25">
+        <v>3</v>
+      </c>
+      <c r="I25">
+        <v>77</v>
+      </c>
+      <c r="J25" s="3">
+        <v>75</v>
+      </c>
+      <c r="K25" s="3">
+        <v>74</v>
       </c>
     </row>
   </sheetData>
